--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1868.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1868.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.1219571648605488</v>
+        <v>1.948866844177246</v>
       </c>
       <c r="B1">
-        <v>0.1212115158817037</v>
+        <v>2.534700155258179</v>
       </c>
       <c r="C1">
-        <v>0.1279860978956806</v>
+        <v>2.399510383605957</v>
       </c>
       <c r="D1">
-        <v>0.1766143820558599</v>
+        <v>2.53086519241333</v>
       </c>
       <c r="E1">
-        <v>0.3336784189425848</v>
+        <v>3.286553144454956</v>
       </c>
     </row>
   </sheetData>
